--- a/out/test/Figori_algorithm_28.xlsx
+++ b/out/test/Figori_algorithm_28.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.56494999999999995</v>
+        <v>0.5706</v>
       </c>
       <c r="B1">
-        <v>0.73014999999999997</v>
+        <v>0.53895000000000004</v>
       </c>
       <c r="C1">
-        <v>0.54054999999999997</v>
+        <v>0.57474999999999998</v>
       </c>
       <c r="D1">
-        <v>0.74544999999999995</v>
+        <v>0.55964999999999998</v>
       </c>
       <c r="E1">
-        <v>0.73519999999999996</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="F1">
-        <v>0.74680000000000002</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="G1">
-        <v>0.53534999999999999</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="H1">
-        <v>0.56135000000000002</v>
+        <v>0.53935</v>
       </c>
       <c r="I1">
-        <v>0.57779999999999998</v>
+        <v>0.73514999999999997</v>
       </c>
       <c r="J1">
-        <v>0.73829999999999996</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="K1">
-        <v>0.54</v>
+        <v>0.52695000000000003</v>
       </c>
       <c r="L1">
-        <v>0.73945000000000005</v>
+        <v>0.74065000000000003</v>
       </c>
       <c r="M1">
-        <v>0.74350000000000005</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="N1">
-        <v>0.53639999999999999</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="O1">
-        <v>0.56499999999999995</v>
+        <v>0.73694999999999999</v>
       </c>
       <c r="P1">
-        <v>0.73104999999999998</v>
+        <v>0.72755000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.56499999999999995</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="R1">
-        <v>0.73265000000000002</v>
+        <v>0.57145000000000001</v>
       </c>
       <c r="S1">
-        <v>0.53835</v>
+        <v>0.56969999999999998</v>
       </c>
       <c r="T1">
-        <v>0.75339999999999996</v>
+        <v>0.76129999999999998</v>
       </c>
       <c r="U1">
-        <v>0.72570000000000001</v>
+        <v>0.56835000000000002</v>
       </c>
       <c r="V1">
-        <v>0.72209999999999996</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="W1">
-        <v>0.74829999999999997</v>
+        <v>0.57284999999999997</v>
       </c>
       <c r="X1">
-        <v>0.72445000000000004</v>
+        <v>0.56459999999999999</v>
       </c>
       <c r="Y1">
-        <v>0.56945000000000001</v>
+        <v>0.54139999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.76229999999999998</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="AA1">
-        <v>0.72445000000000004</v>
+        <v>0.56774999999999998</v>
       </c>
       <c r="AB1">
-        <v>0.55584999999999996</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="AC1">
-        <v>0.56925000000000003</v>
+        <v>0.57655000000000001</v>
       </c>
       <c r="AD1">
+        <v>0.73294999999999999</v>
+      </c>
+      <c r="AE1">
         <v>0.73304999999999998</v>
       </c>
-      <c r="AE1">
-        <v>0.57015000000000005</v>
-      </c>
       <c r="AF1">
-        <v>0.54079999999999995</v>
+        <v>0.54285000000000005</v>
       </c>
       <c r="AG1">
-        <v>0.73485</v>
+        <v>0.71865000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.73604999999999998</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="AI1">
-        <v>0.74009999999999998</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.57594999999999996</v>
+        <v>0.74060000000000004</v>
       </c>
       <c r="AK1">
-        <v>0.73319999999999996</v>
+        <v>0.73094999999999999</v>
       </c>
       <c r="AL1">
-        <v>0.75039999999999996</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="AM1">
-        <v>0.74350000000000005</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="AN1">
-        <v>0.72140000000000004</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AO1">
-        <v>0.72504999999999997</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AP1">
-        <v>0.73694999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="AQ1">
-        <v>0.75360000000000005</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="AR1">
-        <v>0.73880000000000001</v>
+        <v>0.74434999999999996</v>
       </c>
       <c r="AS1">
-        <v>0.75619999999999998</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="AT1">
-        <v>0.74339999999999995</v>
+        <v>0.57845000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.72324999999999995</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="AV1">
-        <v>0.54415000000000002</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.75660000000000005</v>
+        <v>0.53995000000000004</v>
       </c>
       <c r="AX1">
-        <v>0.56320000000000003</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.55794999999999995</v>
+        <v>0.5383</v>
       </c>
       <c r="B2">
-        <v>0.69969999999999999</v>
+        <v>0.48665000000000003</v>
       </c>
       <c r="C2">
-        <v>0.44924999999999998</v>
+        <v>0.56294999999999995</v>
       </c>
       <c r="D2">
-        <v>0.71035000000000004</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="E2">
-        <v>0.78764999999999996</v>
+        <v>0.69504999999999995</v>
       </c>
       <c r="F2">
-        <v>0.80669999999999997</v>
+        <v>0.67484999999999995</v>
       </c>
       <c r="G2">
-        <v>0.48115000000000002</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="H2">
-        <v>0.62395</v>
+        <v>0.47375</v>
       </c>
       <c r="I2">
-        <v>0.65825</v>
+        <v>0.77339999999999998</v>
       </c>
       <c r="J2">
-        <v>0.70874999999999999</v>
+        <v>0.82464999999999999</v>
       </c>
       <c r="K2">
-        <v>0.50895000000000001</v>
+        <v>0.70204999999999995</v>
       </c>
       <c r="L2">
-        <v>0.72945000000000004</v>
+        <v>0.72655000000000003</v>
       </c>
       <c r="M2">
-        <v>0.72955000000000003</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="N2">
-        <v>0.50449999999999995</v>
+        <v>0.72440000000000004</v>
       </c>
       <c r="O2">
-        <v>0.54900000000000004</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="P2">
-        <v>0.67900000000000005</v>
+        <v>0.61645000000000005</v>
       </c>
       <c r="Q2">
-        <v>0.51880000000000004</v>
+        <v>0.74175000000000002</v>
       </c>
       <c r="R2">
-        <v>0.78695000000000004</v>
+        <v>0.52734999999999999</v>
       </c>
       <c r="S2">
-        <v>0.48609999999999998</v>
+        <v>0.56535000000000002</v>
       </c>
       <c r="T2">
-        <v>0.82740000000000002</v>
+        <v>0.75580000000000003</v>
       </c>
       <c r="U2">
-        <v>0.81005000000000005</v>
+        <v>0.71924999999999994</v>
       </c>
       <c r="V2">
-        <v>0.77444999999999997</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="W2">
-        <v>0.73609999999999998</v>
+        <v>0.55135000000000001</v>
       </c>
       <c r="X2">
-        <v>0.71860000000000002</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="Y2">
-        <v>0.53015000000000001</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="Z2">
-        <v>0.71579999999999999</v>
+        <v>0.71884999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.65529999999999999</v>
+        <v>0.5988</v>
       </c>
       <c r="AB2">
-        <v>0.54020000000000001</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="AC2">
-        <v>0.55369999999999997</v>
+        <v>0.77769999999999995</v>
       </c>
       <c r="AD2">
-        <v>0.67215000000000003</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.54500000000000004</v>
+        <v>0.69604999999999995</v>
       </c>
       <c r="AF2">
-        <v>0.79095000000000004</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.71450000000000002</v>
+        <v>0.77344999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.85050000000000003</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="AI2">
-        <v>0.73750000000000004</v>
+        <v>0.47725000000000001</v>
       </c>
       <c r="AJ2">
-        <v>0.53225</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="AK2">
-        <v>0.73899999999999999</v>
+        <v>0.66125</v>
       </c>
       <c r="AL2">
-        <v>0.8306</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.70504999999999995</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="AN2">
-        <v>0.80954999999999999</v>
+        <v>0.64664999999999995</v>
       </c>
       <c r="AO2">
-        <v>0.66080000000000005</v>
+        <v>0.49125000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.62924999999999998</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AQ2">
-        <v>0.74004999999999999</v>
+        <v>0.63075000000000003</v>
       </c>
       <c r="AR2">
-        <v>0.73124999999999996</v>
+        <v>0.83955000000000002</v>
       </c>
       <c r="AS2">
-        <v>0.74790000000000001</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.71360000000000001</v>
+        <v>0.80030000000000001</v>
       </c>
       <c r="AU2">
-        <v>0.64444999999999997</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AV2">
-        <v>0.47010000000000002</v>
+        <v>0.84589999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.77064999999999995</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="AX2">
-        <v>0.6159</v>
+        <v>0.54735</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.60260000000000002</v>
+        <v>0.49254999999999999</v>
       </c>
       <c r="B3">
-        <v>0.79620000000000002</v>
+        <v>0.54964999999999997</v>
       </c>
       <c r="C3">
-        <v>0.41354999999999997</v>
+        <v>0.58630000000000004</v>
       </c>
       <c r="D3">
-        <v>0.79649999999999999</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="E3">
-        <v>0.88370000000000004</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="F3">
-        <v>0.73865000000000003</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="G3">
-        <v>0.36899999999999999</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="H3">
-        <v>0.55900000000000005</v>
+        <v>0.34575</v>
       </c>
       <c r="I3">
-        <v>0.90739999999999998</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="J3">
-        <v>0.69</v>
+        <v>0.71325000000000005</v>
       </c>
       <c r="K3">
-        <v>0.72384999999999999</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="L3">
-        <v>0.63665000000000005</v>
+        <v>0.6996</v>
       </c>
       <c r="M3">
-        <v>0.69120000000000004</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="N3">
-        <v>0.43840000000000001</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="O3">
-        <v>0.55515000000000003</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="P3">
-        <v>0.75585000000000002</v>
+        <v>0.53854999999999997</v>
       </c>
       <c r="Q3">
-        <v>0.67490000000000006</v>
+        <v>0.66325000000000001</v>
       </c>
       <c r="R3">
-        <v>0.82104999999999995</v>
+        <v>0.64395000000000002</v>
       </c>
       <c r="S3">
-        <v>0.50290000000000001</v>
+        <v>0.47810000000000002</v>
       </c>
       <c r="T3">
-        <v>0.76800000000000002</v>
+        <v>0.85385</v>
       </c>
       <c r="U3">
-        <v>0.75039999999999996</v>
+        <v>0.56279999999999997</v>
       </c>
       <c r="V3">
-        <v>0.83465</v>
+        <v>0.5585</v>
       </c>
       <c r="W3">
-        <v>0.82025000000000003</v>
+        <v>0.70450000000000002</v>
       </c>
       <c r="X3">
-        <v>0.79974999999999996</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.41165000000000002</v>
+        <v>0.82150000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.65149999999999997</v>
+        <v>0.9002</v>
       </c>
       <c r="AA3">
-        <v>0.65049999999999997</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="AB3">
-        <v>0.59960000000000002</v>
+        <v>0.59814999999999996</v>
       </c>
       <c r="AC3">
-        <v>0.75205</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="AD3">
-        <v>0.68979999999999997</v>
+        <v>0.6119</v>
       </c>
       <c r="AE3">
-        <v>0.69920000000000004</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="AF3">
-        <v>0.80200000000000005</v>
+        <v>0.41220000000000001</v>
       </c>
       <c r="AG3">
-        <v>0.72365000000000002</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.79310000000000003</v>
+        <v>0.57655000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.7702</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.61170000000000002</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AK3">
-        <v>0.77249999999999996</v>
+        <v>0.71050000000000002</v>
       </c>
       <c r="AL3">
-        <v>0.79810000000000003</v>
+        <v>0.72014999999999996</v>
       </c>
       <c r="AM3">
-        <v>0.73319999999999996</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.68274999999999997</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.53590000000000004</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.61339999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.77139999999999997</v>
+        <v>0.61865000000000003</v>
       </c>
       <c r="AR3">
-        <v>0.81659999999999999</v>
+        <v>0.62695000000000001</v>
       </c>
       <c r="AS3">
-        <v>0.71130000000000004</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="AT3">
-        <v>0.60055000000000003</v>
+        <v>0.89490000000000003</v>
       </c>
       <c r="AU3">
-        <v>0.59019999999999995</v>
+        <v>0.72904999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.39624999999999999</v>
+        <v>0.78954999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.69245000000000001</v>
+        <v>0.44624999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.42620000000000002</v>
+        <v>0.69269999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83320000000000005</v>
+        <v>0.56464999999999999</v>
       </c>
       <c r="B4">
-        <v>0.75070000000000003</v>
+        <v>0.43714999999999998</v>
       </c>
       <c r="C4">
-        <v>0.26505000000000001</v>
+        <v>0.52075000000000005</v>
       </c>
       <c r="D4">
-        <v>0.68825000000000003</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="E4">
-        <v>0.86419999999999997</v>
+        <v>0.63534999999999997</v>
       </c>
       <c r="F4">
-        <v>0.74219999999999997</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G4">
-        <v>0.43314999999999998</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="H4">
-        <v>0.40939999999999999</v>
+        <v>0.67879999999999996</v>
       </c>
       <c r="I4">
-        <v>0.89265000000000005</v>
+        <v>0.6462</v>
       </c>
       <c r="J4">
-        <v>0.68955</v>
+        <v>0.54085000000000005</v>
       </c>
       <c r="K4">
-        <v>0.79259999999999997</v>
+        <v>0.80735000000000001</v>
       </c>
       <c r="L4">
-        <v>0.65525</v>
+        <v>0.59550000000000003</v>
       </c>
       <c r="M4">
-        <v>0.89800000000000002</v>
+        <v>0.51324999999999998</v>
       </c>
       <c r="N4">
-        <v>0.38729999999999998</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="O4">
-        <v>0.79410000000000003</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="P4">
-        <v>0.63805000000000001</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.69850000000000001</v>
+        <v>0.66954999999999998</v>
       </c>
       <c r="R4">
-        <v>0.93959999999999999</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="S4">
-        <v>0.75180000000000002</v>
+        <v>0.38074999999999998</v>
       </c>
       <c r="T4">
-        <v>0.70474999999999999</v>
+        <v>0.7893</v>
       </c>
       <c r="U4">
-        <v>0.76175000000000004</v>
+        <v>0.56245000000000001</v>
       </c>
       <c r="V4">
-        <v>0.76459999999999995</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="W4">
-        <v>0.77615000000000001</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="X4">
-        <v>0.68425000000000002</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.4052</v>
+        <v>0.70469999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.59709999999999996</v>
+        <v>0.79920000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.52015</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="AB4">
-        <v>0.54315000000000002</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.85424999999999995</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="AD4">
-        <v>0.69059999999999999</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="AE4">
-        <v>0.69715000000000005</v>
+        <v>0.47894999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.87880000000000003</v>
+        <v>0.27329999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.69220000000000004</v>
+        <v>0.56135000000000002</v>
       </c>
       <c r="AH4">
-        <v>0.72709999999999997</v>
+        <v>0.49345</v>
       </c>
       <c r="AI4">
-        <v>0.68145</v>
+        <v>0.56664999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.51549999999999996</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="AK4">
-        <v>0.73499999999999999</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AL4">
-        <v>0.70935000000000004</v>
+        <v>0.53325</v>
       </c>
       <c r="AM4">
-        <v>0.621</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="AN4">
-        <v>0.50575000000000003</v>
+        <v>0.60024999999999995</v>
       </c>
       <c r="AO4">
-        <v>0.56820000000000004</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="AP4">
-        <v>0.52629999999999999</v>
+        <v>0.4945</v>
       </c>
       <c r="AQ4">
-        <v>0.67130000000000001</v>
+        <v>0.87080000000000002</v>
       </c>
       <c r="AR4">
-        <v>0.95809999999999995</v>
+        <v>0.58235000000000003</v>
       </c>
       <c r="AS4">
-        <v>0.78169999999999995</v>
+        <v>0.58174999999999999</v>
       </c>
       <c r="AT4">
-        <v>0.60414999999999996</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="AU4">
-        <v>0.47155000000000002</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.66595000000000004</v>
+        <v>0.70015000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.62680000000000002</v>
+        <v>0.57394999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.35799999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84009999999999996</v>
+        <v>0.49085000000000001</v>
       </c>
       <c r="B5">
-        <v>0.69920000000000004</v>
+        <v>0.29035</v>
       </c>
       <c r="C5">
-        <v>0.37009999999999998</v>
+        <v>0.42475000000000002</v>
       </c>
       <c r="D5">
-        <v>0.64510000000000001</v>
+        <v>0.61850000000000005</v>
       </c>
       <c r="E5">
-        <v>0.83809999999999996</v>
+        <v>0.82179999999999997</v>
       </c>
       <c r="F5">
-        <v>0.75019999999999998</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="G5">
-        <v>0.40029999999999999</v>
+        <v>0.64270000000000005</v>
       </c>
       <c r="H5">
-        <v>0.35425000000000001</v>
+        <v>0.5514</v>
       </c>
       <c r="I5">
-        <v>0.72350000000000003</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J5">
-        <v>0.61004999999999998</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="K5">
-        <v>0.9214</v>
+        <v>0.65610000000000002</v>
       </c>
       <c r="L5">
-        <v>0.59830000000000005</v>
+        <v>0.57310000000000005</v>
       </c>
       <c r="M5">
-        <v>0.9153</v>
+        <v>0.5242</v>
       </c>
       <c r="N5">
-        <v>0.76980000000000004</v>
+        <v>0.7419</v>
       </c>
       <c r="O5">
-        <v>0.75</v>
+        <v>0.56930000000000003</v>
       </c>
       <c r="P5">
-        <v>0.85119999999999996</v>
+        <v>0.56105000000000005</v>
       </c>
       <c r="Q5">
-        <v>0.79410000000000003</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="R5">
-        <v>0.85909999999999997</v>
+        <v>0.63234999999999997</v>
       </c>
       <c r="S5">
-        <v>0.61429999999999996</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="T5">
-        <v>0.73085</v>
+        <v>0.69525000000000003</v>
       </c>
       <c r="U5">
-        <v>0.74729999999999996</v>
+        <v>0.57969999999999999</v>
       </c>
       <c r="V5">
-        <v>0.58209999999999995</v>
+        <v>0.51265000000000005</v>
       </c>
       <c r="W5">
-        <v>0.57594999999999996</v>
+        <v>0.57210000000000005</v>
       </c>
       <c r="X5">
-        <v>0.86350000000000005</v>
+        <v>0.34844999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.46925</v>
+        <v>0.62885000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.72770000000000001</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="AA5">
-        <v>0.5302</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.39405000000000001</v>
+        <v>0.59160000000000001</v>
       </c>
       <c r="AC5">
-        <v>0.85609999999999997</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.57279999999999998</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="AE5">
-        <v>0.64249999999999996</v>
+        <v>0.4173</v>
       </c>
       <c r="AF5">
-        <v>0.76829999999999998</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.82330000000000003</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="AH5">
-        <v>0.64639999999999997</v>
+        <v>0.31974999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.55169999999999997</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.38</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.59955000000000003</v>
+        <v>0.63405</v>
       </c>
       <c r="AL5">
-        <v>0.63919999999999999</v>
+        <v>0.73089999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.53444999999999998</v>
+        <v>0.64034999999999997</v>
       </c>
       <c r="AN5">
-        <v>0.56320000000000003</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.64649999999999996</v>
+        <v>0.23905000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.58289999999999997</v>
+        <v>0.39340000000000003</v>
       </c>
       <c r="AQ5">
-        <v>0.46489999999999998</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.92379999999999995</v>
+        <v>0.64354999999999996</v>
       </c>
       <c r="AS5">
-        <v>0.69430000000000003</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="AT5">
-        <v>0.76680000000000004</v>
+        <v>0.78205000000000002</v>
       </c>
       <c r="AU5">
-        <v>0.49025000000000002</v>
+        <v>0.4914</v>
       </c>
       <c r="AV5">
-        <v>0.63780000000000003</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="AW5">
-        <v>0.61360000000000003</v>
+        <v>0.45250000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.43104999999999999</v>
+        <v>0.54749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.73560000000000003</v>
+        <v>0.44969999999999999</v>
       </c>
       <c r="B6">
-        <v>0.70420000000000005</v>
+        <v>0.38884999999999997</v>
       </c>
       <c r="C6">
-        <v>0.84860000000000002</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="D6">
-        <v>0.68200000000000005</v>
+        <v>0.83309999999999995</v>
       </c>
       <c r="E6">
-        <v>0.81559999999999999</v>
+        <v>0.8468</v>
       </c>
       <c r="F6">
-        <v>0.79559999999999997</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G6">
-        <v>0.32519999999999999</v>
+        <v>0.87829999999999997</v>
       </c>
       <c r="H6">
-        <v>0.33944999999999997</v>
+        <v>0.60140000000000005</v>
       </c>
       <c r="I6">
-        <v>0.87960000000000005</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="J6">
-        <v>0.59819999999999995</v>
+        <v>0.48349999999999999</v>
       </c>
       <c r="K6">
-        <v>0.88049999999999995</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="L6">
-        <v>0.63170000000000004</v>
+        <v>0.45679999999999998</v>
       </c>
       <c r="M6">
-        <v>0.9113</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="N6">
-        <v>0.58109999999999995</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="O6">
-        <v>0.75360000000000005</v>
+        <v>0.35439999999999999</v>
       </c>
       <c r="P6">
-        <v>0.75490000000000002</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="Q6">
-        <v>0.63580000000000003</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="R6">
-        <v>0.7903</v>
+        <v>0.67530000000000001</v>
       </c>
       <c r="S6">
-        <v>0.72909999999999997</v>
+        <v>0.315</v>
       </c>
       <c r="T6">
-        <v>0.72160000000000002</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="U6">
-        <v>0.754</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="V6">
-        <v>0.3402</v>
+        <v>0.41310000000000002</v>
       </c>
       <c r="W6">
-        <v>0.3987</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="X6">
-        <v>0.93279999999999996</v>
+        <v>0.2286</v>
       </c>
       <c r="Y6">
-        <v>0.45069999999999999</v>
+        <v>0.57620000000000005</v>
       </c>
       <c r="Z6">
-        <v>0.6905</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="AA6">
-        <v>0.64300000000000002</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.27975</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.77380000000000004</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="AD6">
-        <v>0.29580000000000001</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="AE6">
-        <v>0.68130000000000002</v>
+        <v>0.26240000000000002</v>
       </c>
       <c r="AF6">
-        <v>0.92949999999999999</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="AG6">
-        <v>0.85109999999999997</v>
+        <v>0.43190000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.49530000000000002</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="AI6">
-        <v>0.628</v>
+        <v>0.26869999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.28060000000000002</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="AK6">
-        <v>0.70489999999999997</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="AL6">
-        <v>0.58130000000000004</v>
+        <v>0.79079999999999995</v>
       </c>
       <c r="AM6">
-        <v>0.36099999999999999</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.48149999999999998</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.66149999999999998</v>
+        <v>0.28515000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.40920000000000001</v>
+        <v>0.24349999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.34029999999999999</v>
+        <v>0.71914999999999996</v>
       </c>
       <c r="AR6">
-        <v>0.80030000000000001</v>
+        <v>0.72804999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.60770000000000002</v>
+        <v>0.5554</v>
       </c>
       <c r="AT6">
-        <v>0.68589999999999995</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.6542</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="AV6">
-        <v>0.52049999999999996</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.60460000000000003</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.69215000000000004</v>
+        <v>0.65949999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.56879999999999997</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="B7">
-        <v>0.57589999999999997</v>
+        <v>0.44090000000000001</v>
       </c>
       <c r="C7">
-        <v>0.88629999999999998</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="D7">
-        <v>0.75900000000000001</v>
+        <v>0.66930000000000001</v>
       </c>
       <c r="E7">
-        <v>0.65500000000000003</v>
+        <v>0.7984</v>
       </c>
       <c r="F7">
-        <v>0.78480000000000005</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="G7">
-        <v>0.1565</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="H7">
-        <v>0.60940000000000005</v>
+        <v>0.747</v>
       </c>
       <c r="I7">
-        <v>0.83499999999999996</v>
+        <v>0.72160000000000002</v>
       </c>
       <c r="J7">
-        <v>0.60270000000000001</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="K7">
-        <v>0.91239999999999999</v>
+        <v>0.65939999999999999</v>
       </c>
       <c r="L7">
-        <v>0.375</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="M7">
-        <v>0.91590000000000005</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="N7">
-        <v>0.69740000000000002</v>
+        <v>0.60670000000000002</v>
       </c>
       <c r="O7">
-        <v>0.76329999999999998</v>
+        <v>0.25669999999999998</v>
       </c>
       <c r="P7">
-        <v>0.7571</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.5907</v>
+        <v>0.7702</v>
       </c>
       <c r="R7">
-        <v>0.84379999999999999</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="S7">
-        <v>0.5423</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="T7">
-        <v>0.81799999999999995</v>
+        <v>0.4511</v>
       </c>
       <c r="U7">
-        <v>0.65959999999999996</v>
+        <v>0.90639999999999998</v>
       </c>
       <c r="V7">
-        <v>0.47110000000000002</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="W7">
-        <v>0.61160000000000003</v>
+        <v>0.37269999999999998</v>
       </c>
       <c r="X7">
-        <v>0.89259999999999995</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="Y7">
-        <v>0.45</v>
+        <v>0.5131</v>
       </c>
       <c r="Z7">
-        <v>0.59250000000000003</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="AA7">
-        <v>0.63529999999999998</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="AB7">
-        <v>0.43680000000000002</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="AC7">
-        <v>0.88749999999999996</v>
+        <v>0.73229999999999995</v>
       </c>
       <c r="AD7">
-        <v>0.34489999999999998</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="AE7">
-        <v>0.52259999999999995</v>
+        <v>0.58850000000000002</v>
       </c>
       <c r="AF7">
-        <v>0.85880000000000001</v>
+        <v>0.71409999999999996</v>
       </c>
       <c r="AG7">
-        <v>0.73770000000000002</v>
+        <v>0.1527</v>
       </c>
       <c r="AH7">
-        <v>0.43180000000000002</v>
+        <v>0.23769999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.61850000000000005</v>
+        <v>0.437</v>
       </c>
       <c r="AJ7">
-        <v>0.3417</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="AK7">
-        <v>0.39369999999999999</v>
+        <v>0.49469999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.51380000000000003</v>
+        <v>0.69430000000000003</v>
       </c>
       <c r="AM7">
-        <v>0.27479999999999999</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="AN7">
-        <v>0.5222</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.5141</v>
+        <v>0.3427</v>
       </c>
       <c r="AP7">
-        <v>0.30049999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="AQ7">
-        <v>0.25230000000000002</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="AR7">
-        <v>0.80310000000000004</v>
+        <v>0.59914999999999996</v>
       </c>
       <c r="AS7">
-        <v>0.64370000000000005</v>
+        <v>0.50590000000000002</v>
       </c>
       <c r="AT7">
-        <v>0.63290000000000002</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="AU7">
-        <v>0.51729999999999998</v>
+        <v>0.51770000000000005</v>
       </c>
       <c r="AV7">
-        <v>0.65500000000000003</v>
+        <v>0.5212</v>
       </c>
       <c r="AW7">
-        <v>0.71160000000000001</v>
+        <v>0.3639</v>
       </c>
       <c r="AX7">
-        <v>0.68700000000000006</v>
+        <v>0.54730000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.56940000000000002</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="B8">
-        <v>0.4551</v>
+        <v>0.48859999999999998</v>
       </c>
       <c r="C8">
-        <v>0.78469999999999995</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="D8">
-        <v>0.67789999999999995</v>
+        <v>0.87160000000000004</v>
       </c>
       <c r="E8">
-        <v>0.46629999999999999</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="F8">
-        <v>0.79610000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G8">
-        <v>2.1499999999999998E-2</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="H8">
-        <v>0.77429999999999999</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="I8">
-        <v>0.72650000000000003</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="J8">
-        <v>0.53259999999999996</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="K8">
-        <v>0.78349999999999997</v>
+        <v>0.52380000000000004</v>
       </c>
       <c r="L8">
-        <v>0.21329999999999999</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="M8">
-        <v>0.85950000000000004</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="N8">
-        <v>0.72350000000000003</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="O8">
-        <v>0.86580000000000001</v>
+        <v>0.1671</v>
       </c>
       <c r="P8">
-        <v>0.66569999999999996</v>
+        <v>0.4259</v>
       </c>
       <c r="Q8">
-        <v>0.57930000000000004</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="R8">
-        <v>0.79690000000000005</v>
+        <v>0.59640000000000004</v>
       </c>
       <c r="S8">
-        <v>0.44800000000000001</v>
+        <v>0.54149999999999998</v>
       </c>
       <c r="T8">
-        <v>0.85389999999999999</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="U8">
-        <v>0.90359999999999996</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="V8">
-        <v>0.44119999999999998</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="W8">
-        <v>0.53390000000000004</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="X8">
-        <v>0.87319999999999998</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="Y8">
-        <v>0.64359999999999995</v>
+        <v>0.3543</v>
       </c>
       <c r="Z8">
-        <v>0.57669999999999999</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.5585</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.5141</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="AC8">
-        <v>0.97809999999999997</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="AD8">
-        <v>0.42859999999999998</v>
+        <v>0.63739999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.67469999999999997</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="AF8">
-        <v>0.79630000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AG8">
-        <v>0.81530000000000002</v>
+        <v>0.2044</v>
       </c>
       <c r="AH8">
-        <v>0.29249999999999998</v>
+        <v>0.1716</v>
       </c>
       <c r="AI8">
-        <v>0.38019999999999998</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="AJ8">
-        <v>0.32485000000000003</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="AK8">
-        <v>0.40479999999999999</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.63739999999999997</v>
+        <v>0.57550000000000001</v>
       </c>
       <c r="AM8">
-        <v>0.26340000000000002</v>
+        <v>0.37219999999999998</v>
       </c>
       <c r="AN8">
-        <v>0.50949999999999995</v>
+        <v>0.60189999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.65569999999999995</v>
+        <v>0.40660000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.41070000000000001</v>
+        <v>0.10780000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.3644</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="AR8">
-        <v>0.73080000000000001</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.79269999999999996</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.71009999999999995</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="AU8">
-        <v>0.38479999999999998</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="AV8">
-        <v>0.69720000000000004</v>
+        <v>0.47310000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.71309999999999996</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.55840000000000001</v>
+        <v>0.36380000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.39369999999999999</v>
+        <v>0.47120000000000001</v>
       </c>
       <c r="B9">
-        <v>0.48770000000000002</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="C9">
-        <v>0.51839999999999997</v>
+        <v>0.81740000000000002</v>
       </c>
       <c r="D9">
-        <v>0.61950000000000005</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="E9">
-        <v>0.28499999999999998</v>
+        <v>0.8841</v>
       </c>
       <c r="F9">
-        <v>0.68530000000000002</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="G9">
-        <v>6.8699999999999997E-2</v>
+        <v>0.58689999999999998</v>
       </c>
       <c r="H9">
-        <v>0.58089999999999997</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="I9">
-        <v>0.6159</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="J9">
-        <v>0.70750000000000002</v>
+        <v>0.41610000000000003</v>
       </c>
       <c r="K9">
-        <v>0.72299999999999998</v>
+        <v>0.41720000000000002</v>
       </c>
       <c r="L9">
-        <v>0.36309999999999998</v>
+        <v>0.44890000000000002</v>
       </c>
       <c r="M9">
-        <v>0.70520000000000005</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="N9">
-        <v>0.77159999999999995</v>
+        <v>0.3306</v>
       </c>
       <c r="O9">
-        <v>0.80640000000000001</v>
+        <v>0.16869999999999999</v>
       </c>
       <c r="P9">
-        <v>0.62490000000000001</v>
+        <v>0.39789999999999998</v>
       </c>
       <c r="Q9">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="S9">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="T9">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="X9">
         <v>0.63029999999999997</v>
       </c>
-      <c r="R9">
-        <v>0.75690000000000002</v>
-      </c>
-      <c r="S9">
-        <v>0.35160000000000002</v>
-      </c>
-      <c r="T9">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="U9">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="V9">
-        <v>0.54879999999999995</v>
-      </c>
-      <c r="W9">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="X9">
-        <v>0.73419999999999996</v>
-      </c>
       <c r="Y9">
-        <v>0.58130000000000004</v>
+        <v>0.41980000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.48599999999999999</v>
+        <v>0.5998</v>
       </c>
       <c r="AA9">
-        <v>0.50670000000000004</v>
+        <v>0.56689999999999996</v>
       </c>
       <c r="AB9">
-        <v>0.24809999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="AC9">
-        <v>0.8992</v>
+        <v>0.72629999999999995</v>
       </c>
       <c r="AD9">
-        <v>0.47499999999999998</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="AE9">
-        <v>0.35780000000000001</v>
+        <v>0.5081</v>
       </c>
       <c r="AF9">
-        <v>0.61460000000000004</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.83440000000000003</v>
+        <v>0.28410000000000002</v>
       </c>
       <c r="AH9">
-        <v>7.5899999999999995E-2</v>
+        <v>0.42820000000000003</v>
       </c>
       <c r="AI9">
-        <v>0.59799999999999998</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.47120000000000001</v>
+        <v>0.62290000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.70909999999999995</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.68679999999999997</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="AM9">
-        <v>0.32634999999999997</v>
+        <v>0.6532</v>
       </c>
       <c r="AN9">
-        <v>0.47899999999999998</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="AO9">
-        <v>0.53339999999999999</v>
+        <v>0.25390000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.37330000000000002</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="AQ9">
-        <v>0.3014</v>
+        <v>0.5111</v>
       </c>
       <c r="AR9">
-        <v>0.74629999999999996</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.89149999999999996</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="AT9">
-        <v>0.66639999999999999</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="AU9">
-        <v>0.34549999999999997</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.91930000000000001</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="AW9">
-        <v>0.48809999999999998</v>
+        <v>0.26690000000000003</v>
       </c>
       <c r="AX9">
-        <v>0.7026</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3614</v>
+        <v>0.28410000000000002</v>
       </c>
       <c r="B10">
-        <v>0.45100000000000001</v>
+        <v>0.2954</v>
       </c>
       <c r="C10">
-        <v>0.42299999999999999</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="D10">
-        <v>0.83399999999999996</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="E10">
-        <v>0.29909999999999998</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="F10">
-        <v>0.76829999999999998</v>
+        <v>0.8599</v>
       </c>
       <c r="G10">
-        <v>1.1900000000000001E-2</v>
+        <v>0.52539999999999998</v>
       </c>
       <c r="H10">
-        <v>0.6089</v>
+        <v>0.1762</v>
       </c>
       <c r="I10">
-        <v>0.69610000000000005</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="J10">
-        <v>0.69899999999999995</v>
+        <v>0.44080000000000003</v>
       </c>
       <c r="K10">
-        <v>0.67759999999999998</v>
+        <v>0.40529999999999999</v>
       </c>
       <c r="L10">
-        <v>0.28439999999999999</v>
+        <v>0.57620000000000005</v>
       </c>
       <c r="M10">
-        <v>0.62949999999999995</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="N10">
-        <v>0.73860000000000003</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="O10">
-        <v>0.84450000000000003</v>
+        <v>0.47370000000000001</v>
       </c>
       <c r="P10">
-        <v>0.54869999999999997</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.59819999999999995</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="R10">
-        <v>0.61550000000000005</v>
+        <v>0.74919999999999998</v>
       </c>
       <c r="S10">
-        <v>0.36799999999999999</v>
+        <v>0.7046</v>
       </c>
       <c r="T10">
-        <v>0.90269999999999995</v>
+        <v>0.7369</v>
       </c>
       <c r="U10">
-        <v>0.76529999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="V10">
-        <v>0.60729999999999995</v>
+        <v>0.6583</v>
       </c>
       <c r="W10">
-        <v>0.47249999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="X10">
-        <v>0.85160000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="Y10">
-        <v>0.39489999999999997</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.5343</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="AA10">
-        <v>0.50039999999999996</v>
+        <v>0.3871</v>
       </c>
       <c r="AB10">
-        <v>0.26390000000000002</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.79730000000000001</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AD10">
-        <v>0.52110000000000001</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.38379999999999997</v>
+        <v>0.5282</v>
       </c>
       <c r="AF10">
-        <v>0.69899999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="AG10">
-        <v>0.90900000000000003</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="AH10">
-        <v>7.6899999999999996E-2</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.60560000000000003</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.72040000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="AK10">
-        <v>0.75990000000000002</v>
+        <v>0.14580000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.81279999999999997</v>
+        <v>0.33079999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.49080000000000001</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="AN10">
-        <v>0.48299999999999998</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="AO10">
-        <v>0.54020000000000001</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.50619999999999998</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="AQ10">
-        <v>0.24340000000000001</v>
+        <v>0.44219999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.70150000000000001</v>
+        <v>0.47160000000000002</v>
       </c>
       <c r="AS10">
-        <v>0.79459999999999997</v>
+        <v>0.4945</v>
       </c>
       <c r="AT10">
-        <v>0.68240000000000001</v>
+        <v>0.86860000000000004</v>
       </c>
       <c r="AU10">
-        <v>0.32079999999999997</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.83879999999999999</v>
+        <v>0.4975</v>
       </c>
       <c r="AW10">
-        <v>0.39889999999999998</v>
+        <v>0.44019999999999998</v>
       </c>
       <c r="AX10">
-        <v>0.54849999999999999</v>
+        <v>9.5600000000000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.16400000000000001</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="B11">
-        <v>0.27579999999999999</v>
+        <v>0.69510000000000005</v>
       </c>
       <c r="C11">
-        <v>0.1101</v>
+        <v>0.72629999999999995</v>
       </c>
       <c r="D11">
-        <v>0.67520000000000002</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="E11">
-        <v>0.48449999999999999</v>
+        <v>0.79559999999999997</v>
       </c>
       <c r="F11">
-        <v>0.58320000000000005</v>
+        <v>0.80389999999999995</v>
       </c>
       <c r="G11">
-        <v>1.7600000000000001E-2</v>
+        <v>0.52990000000000004</v>
       </c>
       <c r="H11">
-        <v>0.39879999999999999</v>
+        <v>0.45269999999999999</v>
       </c>
       <c r="I11">
-        <v>0.57069999999999999</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="J11">
-        <v>0.65490000000000004</v>
+        <v>0.51910000000000001</v>
       </c>
       <c r="K11">
-        <v>0.57399999999999995</v>
+        <v>0.57850000000000001</v>
       </c>
       <c r="L11">
-        <v>0.41670000000000001</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="M11">
-        <v>0.63839999999999997</v>
+        <v>0.72389999999999999</v>
       </c>
       <c r="N11">
-        <v>0.75480000000000003</v>
+        <v>0.48159999999999997</v>
       </c>
       <c r="O11">
-        <v>0.7329</v>
+        <v>0.45889999999999997</v>
       </c>
       <c r="P11">
-        <v>0.55010000000000003</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.53939999999999999</v>
+        <v>0.9042</v>
       </c>
       <c r="R11">
-        <v>0.61809999999999998</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="S11">
-        <v>0.49830000000000002</v>
+        <v>0.70350000000000001</v>
       </c>
       <c r="T11">
-        <v>0.78800000000000003</v>
+        <v>0.73870000000000002</v>
       </c>
       <c r="U11">
-        <v>0.88739999999999997</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="V11">
-        <v>0.39689999999999998</v>
+        <v>0.69530000000000003</v>
       </c>
       <c r="W11">
-        <v>0.60640000000000005</v>
+        <v>0.59389999999999998</v>
       </c>
       <c r="X11">
-        <v>0.76670000000000005</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="Y11">
-        <v>0.52690000000000003</v>
+        <v>0.14349999999999999</v>
       </c>
       <c r="Z11">
+        <v>0.7248</v>
+      </c>
+      <c r="AA11">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="AF11">
+        <v>0.2883</v>
+      </c>
+      <c r="AG11">
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="AI11">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.3609</v>
+      </c>
+      <c r="AK11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AL11">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="AN11">
         <v>0.72619999999999996</v>
       </c>
-      <c r="AA11">
-        <v>0.72370000000000001</v>
-      </c>
-      <c r="AB11">
-        <v>0.313</v>
-      </c>
-      <c r="AC11">
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="AD11">
-        <v>0.39810000000000001</v>
-      </c>
-      <c r="AE11">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="AF11">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>0.96060000000000001</v>
-      </c>
-      <c r="AH11">
-        <v>0.1014</v>
-      </c>
-      <c r="AI11">
-        <v>0.56489999999999996</v>
-      </c>
-      <c r="AJ11">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="AK11">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="AL11">
-        <v>0.83</v>
-      </c>
-      <c r="AM11">
-        <v>0.40789999999999998</v>
-      </c>
-      <c r="AN11">
-        <v>0.35310000000000002</v>
-      </c>
       <c r="AO11">
-        <v>0.53100000000000003</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.49220000000000003</v>
+        <v>0.61670000000000003</v>
       </c>
       <c r="AQ11">
-        <v>0.24249999999999999</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="AR11">
-        <v>0.75039999999999996</v>
+        <v>0.32550000000000001</v>
       </c>
       <c r="AS11">
-        <v>0.64729999999999999</v>
+        <v>0.5544</v>
       </c>
       <c r="AT11">
-        <v>0.8014</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="AU11">
-        <v>0.35199999999999998</v>
+        <v>0.2462</v>
       </c>
       <c r="AV11">
-        <v>0.83599999999999997</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="AW11">
-        <v>0.51590000000000003</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.43440000000000001</v>
+        <v>4.2799999999999998E-2</v>
       </c>
     </row>
   </sheetData>
